--- a/Items.xlsx
+++ b/Items.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="134">
   <si>
     <t>Shortsword</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Longbow</t>
   </si>
   <si>
-    <t>Shoot x8</t>
-  </si>
-  <si>
     <t>Shoot x4</t>
   </si>
   <si>
@@ -390,6 +387,42 @@
   </si>
   <si>
     <t>Stabilize x1</t>
+  </si>
+  <si>
+    <t>Ranged, Exotic</t>
+  </si>
+  <si>
+    <t>Blunderbuss</t>
+  </si>
+  <si>
+    <t>2H Reload 1</t>
+  </si>
+  <si>
+    <t>1H Reload 1</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Shoot+ x3</t>
+  </si>
+  <si>
+    <t>Shoot+ x8</t>
+  </si>
+  <si>
+    <t>Grapeshot x3</t>
+  </si>
+  <si>
+    <t>Shoot x3</t>
+  </si>
+  <si>
+    <t>1H Reload 3</t>
+  </si>
+  <si>
+    <t>Musket*</t>
+  </si>
+  <si>
+    <t>* Any card played with a musket equipped which costs ammo has its range doubled.</t>
   </si>
 </sst>
 </file>
@@ -718,7 +751,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N50"/>
+  <dimension ref="B1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -739,41 +772,41 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:14">
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -781,19 +814,19 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -804,19 +837,19 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N5">
         <v>10</v>
@@ -824,19 +857,19 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -847,19 +880,19 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
         <v>69</v>
       </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -870,16 +903,16 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -890,22 +923,22 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -913,7 +946,7 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -922,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -933,19 +966,19 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -956,12 +989,12 @@
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -970,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -984,34 +1017,34 @@
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1019,16 +1052,16 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
         <v>87</v>
-      </c>
-      <c r="J16" t="s">
-        <v>88</v>
       </c>
       <c r="L16">
         <v>20</v>
@@ -1045,10 +1078,10 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L17">
         <v>30</v>
@@ -1059,19 +1092,19 @@
     </row>
     <row r="18" spans="2:14">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L18">
         <v>50</v>
@@ -1082,34 +1115,34 @@
     </row>
     <row r="19" spans="2:14">
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N19">
         <v>6</v>
@@ -1117,34 +1150,34 @@
     </row>
     <row r="20" spans="2:14">
       <c r="B20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N20">
         <v>6</v>
@@ -1152,34 +1185,25 @@
     </row>
     <row r="21" spans="2:14">
       <c r="B21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" t="s">
-        <v>119</v>
-      </c>
-      <c r="L21" t="s">
-        <v>119</v>
+        <v>66</v>
+      </c>
+      <c r="L21">
+        <v>15</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -1187,34 +1211,34 @@
     </row>
     <row r="22" spans="2:14">
       <c r="B22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -1222,34 +1246,34 @@
     </row>
     <row r="23" spans="2:14">
       <c r="B23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N23">
         <v>4</v>
@@ -1257,34 +1281,34 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N24">
         <v>18</v>
@@ -1292,19 +1316,19 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L25">
         <v>25</v>
@@ -1315,19 +1339,19 @@
     </row>
     <row r="26" spans="2:14">
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
         <v>91</v>
       </c>
-      <c r="G26" t="s">
-        <v>92</v>
-      </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L26">
         <v>25</v>
@@ -1344,13 +1368,13 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L27">
         <v>10</v>
@@ -1361,7 +1385,7 @@
     </row>
     <row r="28" spans="2:14">
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -1370,13 +1394,13 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L28">
         <v>5</v>
@@ -1387,34 +1411,34 @@
     </row>
     <row r="29" spans="2:14">
       <c r="B29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -1422,34 +1446,34 @@
     </row>
     <row r="30" spans="2:14">
       <c r="B30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -1457,16 +1481,16 @@
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -1475,23 +1499,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:16">
       <c r="B33" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
       <c r="B34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L34">
         <v>25</v>
@@ -1500,50 +1524,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:16">
       <c r="B35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
       <c r="F36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
         <v>51</v>
       </c>
-      <c r="G36" t="s">
-        <v>52</v>
-      </c>
       <c r="J36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N36">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:16">
       <c r="B37" t="s">
         <v>7</v>
       </c>
@@ -1551,10 +1575,10 @@
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L37">
         <v>25</v>
@@ -1563,43 +1587,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:16">
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N38">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:16">
       <c r="B40" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
         <v>106</v>
       </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" t="s">
-        <v>107</v>
-      </c>
       <c r="J41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L41">
         <v>75</v>
@@ -1608,18 +1632,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:16">
       <c r="B42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>106</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
       </c>
       <c r="J42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L42">
         <v>50</v>
@@ -1628,7 +1655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>8</v>
       </c>
@@ -1636,10 +1663,13 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>106</v>
+      </c>
+      <c r="G43" t="s">
+        <v>127</v>
       </c>
       <c r="J43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L43">
         <v>50</v>
@@ -1648,18 +1678,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:16">
       <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" t="s">
         <v>108</v>
       </c>
-      <c r="D44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F44" t="s">
-        <v>109</v>
-      </c>
       <c r="J44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L44">
         <v>5</v>
@@ -1668,24 +1698,95 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:14">
+    <row r="46" spans="2:16">
+      <c r="B46" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
       <c r="B47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>128</v>
+      </c>
+      <c r="J47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L47">
+        <v>300</v>
+      </c>
+      <c r="N47">
+        <v>10</v>
+      </c>
+      <c r="P47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="15" customHeight="1">
       <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" t="s">
+        <v>129</v>
+      </c>
+      <c r="J48" t="s">
+        <v>125</v>
+      </c>
+      <c r="L48">
+        <v>300</v>
+      </c>
+      <c r="N48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="15" customHeight="1">
+      <c r="B49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" t="s">
+        <v>131</v>
+      </c>
+      <c r="L49">
+        <v>150</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>89</v>
+    <row r="52" spans="2:14">
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1800,28 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="2:11">
       <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3"/>
       <c r="G2" s="3"/>
@@ -1729,10 +1830,10 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1750,21 +1851,21 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -1772,10 +1873,10 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -1786,13 +1887,13 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <v>45</v>
@@ -1803,18 +1904,18 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1825,13 +1926,13 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>50</v>
@@ -1842,19 +1943,19 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
         <v>45</v>
@@ -1862,13 +1963,13 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>150</v>
@@ -1879,19 +1980,19 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>350</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15">
         <v>40</v>
@@ -1899,21 +2000,21 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18">
         <v>40</v>
@@ -1921,16 +2022,16 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>75</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19">
         <v>55</v>
@@ -1938,16 +2039,16 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>150</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20">
         <v>60</v>
@@ -1955,16 +2056,16 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>450</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21">
         <v>65</v>
@@ -1972,15 +2073,15 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -2006,21 +2107,21 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
         <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
       </c>
       <c r="F2">
         <v>5</v>
